--- a/tabular/locus/ecv-side-data.xlsx
+++ b/tabular/locus/ecv-side-data.xlsx
@@ -6519,7 +6519,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="265">
+  <cellStyleXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6785,6 +6785,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6812,7 +6814,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="265">
+  <cellStyles count="267">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6946,6 +6948,7 @@
     <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7077,6 +7080,7 @@
     <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7417,7 +7421,7 @@
   <dimension ref="A1:W516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tabular/locus/ecv-side-data.xlsx
+++ b/tabular/locus/ecv-side-data.xlsx
@@ -6519,7 +6519,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="267">
+  <cellStyleXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6787,6 +6787,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6814,7 +6826,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="267">
+  <cellStyles count="279">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6949,6 +6961,12 @@
     <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7081,6 +7099,12 @@
     <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7421,7 +7445,7 @@
   <dimension ref="A1:W516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
